--- a/datasets/raw/average_house_price.xlsx
+++ b/datasets/raw/average_house_price.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aishachowdhury/Projects/aia-grad-hackathon/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aishachowdhury/Projects/aia-grad-hackathon/datasets/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017957D3-B8B6-BD4E-9C96-E553B4144A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26E994C6-7F27-4345-948F-B95A59D27698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14680" yWindow="760" windowWidth="15120" windowHeight="17160" xr2:uid="{1B071781-4199-C044-8842-1EFFC136A2ED}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17160" xr2:uid="{1B071781-4199-C044-8842-1EFFC136A2ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8495DD4A-2F1F-1E40-AEA2-5901725D64A4}">
   <dimension ref="A1:KS304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="IV1" workbookViewId="0">
-      <selection activeCell="KQ288" sqref="KQ288"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33162,5 +33162,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>